--- a/pdf/Kerala/Kerala-Govt-COVID-19.xlsx
+++ b/pdf/Kerala/Kerala-Govt-COVID-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="164">
   <si>
     <t>Date</t>
   </si>
@@ -497,13 +497,22 @@
   </si>
   <si>
     <t>http://dhs.kerala.gov.in/wp-content/uploads/2020/03/bulm_23032020.pdf</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
+    <t>http://dhs.kerala.gov.in/wp-content/uploads/2020/03/bulm_24032020.pdf</t>
+  </si>
+  <si>
+    <t>http://dhs.kerala.gov.in/wp-content/uploads/2020/03/bule_24032020-1.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -515,6 +524,14 @@
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,14 +560,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -850,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,11 +1471,22 @@
       <c r="A54" t="s">
         <v>158</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1566,8 +1597,10 @@
     <hyperlink ref="C53" r:id="rId104"/>
     <hyperlink ref="B54" r:id="rId105"/>
     <hyperlink ref="C54" r:id="rId106"/>
+    <hyperlink ref="C55" r:id="rId107"/>
+    <hyperlink ref="B55" r:id="rId108"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId107"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId109"/>
 </worksheet>
 </file>